--- a/RawData/optimization_of_furfural_production_by_acid_hydrolysis_of_eucalyptus_globulus_in_two_stages.xlsx
+++ b/RawData/optimization_of_furfural_production_by_acid_hydrolysis_of_eucalyptus_globulus_in_two_stages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/Fourth Year/Renamed_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RileyBallachay/Documents/GitHub/Hemicellulose/HemicelluloseMachineLearning/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A9BE89-E54C-2042-B0FE-99B991BF8139}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C86DD21-0730-B040-A5B6-71BE976CF329}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,11 +243,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2305,10 +2305,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2317,36 +2317,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="4" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2421,13 +2421,13 @@
       <c r="X2" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>150</v>
@@ -2445,7 +2445,7 @@
         <v>250</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -2457,10 +2457,10 @@
         <v>19.43</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>13.565340909090907</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>7.0596590909090899</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -2495,24 +2495,24 @@
         <v>19.43</v>
       </c>
       <c r="T4">
-        <v>13.565340909090907</v>
+        <v>13.30965909090909</v>
       </c>
       <c r="Y4">
-        <v>7.0596590909090899</v>
+        <v>7.2585227272727275</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C5">
         <v>8</v>
       </c>
       <c r="D5">
-        <v>0.25489656297474489</v>
+        <v>0.10195862518989794</v>
       </c>
       <c r="E5">
         <v>8</v>
@@ -2521,7 +2521,7 @@
         <v>250</v>
       </c>
       <c r="H5">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         <v>19.43</v>
       </c>
       <c r="T5">
-        <v>13.30965909090909</v>
+        <v>2.6846590909090917</v>
       </c>
       <c r="Y5">
-        <v>7.2585227272727275</v>
+        <v>0.38352272727272729</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -2550,7 +2550,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>0.10195862518989794</v>
+        <v>0.40783450075959177</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -2571,15 +2571,15 @@
         <v>19.43</v>
       </c>
       <c r="T6">
-        <v>2.6846590909090917</v>
+        <v>22.769886363636367</v>
       </c>
       <c r="Y6">
-        <v>0.38352272727272729</v>
+        <v>14.758522727272728</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>130</v>
@@ -2588,7 +2588,7 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>0.40783450075959177</v>
+        <v>0.25489656297474489</v>
       </c>
       <c r="E7">
         <v>8</v>
@@ -2597,7 +2597,7 @@
         <v>250</v>
       </c>
       <c r="H7">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
@@ -2609,15 +2609,15 @@
         <v>19.43</v>
       </c>
       <c r="T7">
-        <v>22.769886363636367</v>
+        <v>9.545454545454545</v>
       </c>
       <c r="Y7">
-        <v>14.758522727272728</v>
+        <v>4.4460227272727266</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>130</v>
@@ -2626,7 +2626,7 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>0.25489656297474489</v>
+        <v>0.10195862518989794</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -2635,7 +2635,7 @@
         <v>250</v>
       </c>
       <c r="H8">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
@@ -2647,10 +2647,10 @@
         <v>19.43</v>
       </c>
       <c r="T8">
-        <v>9.545454545454545</v>
+        <v>5.3124999999999991</v>
       </c>
       <c r="Y8">
-        <v>4.4460227272727266</v>
+        <v>0.59659090909090906</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -2664,7 +2664,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>0.10195862518989794</v>
+        <v>0.40783450075959177</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -2685,24 +2685,24 @@
         <v>19.43</v>
       </c>
       <c r="T9">
-        <v>5.3124999999999991</v>
+        <v>19.204545454545453</v>
       </c>
       <c r="Y9">
-        <v>0.59659090909090906</v>
+        <v>14.602272727272727</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B10">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>0.40783450075959177</v>
+        <v>0.25489656297474489</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -2711,7 +2711,7 @@
         <v>250</v>
       </c>
       <c r="H10">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
@@ -2723,15 +2723,15 @@
         <v>19.43</v>
       </c>
       <c r="T10">
-        <v>19.204545454545453</v>
+        <v>16.363636363636363</v>
       </c>
       <c r="Y10">
-        <v>14.602272727272727</v>
+        <v>6.5198863636363633</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>150</v>
@@ -2740,7 +2740,7 @@
         <v>8</v>
       </c>
       <c r="D11">
-        <v>0.25489656297474489</v>
+        <v>0.10195862518989794</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -2749,7 +2749,7 @@
         <v>250</v>
       </c>
       <c r="H11">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>19.43</v>
       </c>
       <c r="T11">
-        <v>16.363636363636363</v>
+        <v>5.7954545454545467</v>
       </c>
       <c r="Y11">
-        <v>6.5198863636363633</v>
+        <v>3.4943181818181821</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -2778,7 +2778,7 @@
         <v>8</v>
       </c>
       <c r="D12">
-        <v>0.10195862518989794</v>
+        <v>0.40783450075959177</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -2799,15 +2799,15 @@
         <v>19.43</v>
       </c>
       <c r="T12">
-        <v>5.7954545454545467</v>
+        <v>17.144886363636363</v>
       </c>
       <c r="Y12">
-        <v>3.4943181818181821</v>
+        <v>14.985795454545455</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>150</v>
@@ -2816,7 +2816,7 @@
         <v>8</v>
       </c>
       <c r="D13">
-        <v>0.40783450075959177</v>
+        <v>0.25489656297474489</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -2825,7 +2825,7 @@
         <v>250</v>
       </c>
       <c r="H13">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
@@ -2840,21 +2840,21 @@
         <v>17.144886363636363</v>
       </c>
       <c r="Y13">
-        <v>14.985795454545455</v>
+        <v>7.9971590909090908</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C14">
         <v>8</v>
       </c>
       <c r="D14">
-        <v>0.25489656297474489</v>
+        <v>0.10195862518989794</v>
       </c>
       <c r="E14">
         <v>8</v>
@@ -2863,7 +2863,7 @@
         <v>250</v>
       </c>
       <c r="H14">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -2875,10 +2875,10 @@
         <v>19.43</v>
       </c>
       <c r="T14">
-        <v>17.144886363636363</v>
+        <v>3.9204545454545459</v>
       </c>
       <c r="Y14">
-        <v>7.9971590909090908</v>
+        <v>1.7613636363636365</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -2892,7 +2892,7 @@
         <v>8</v>
       </c>
       <c r="D15">
-        <v>0.10195862518989794</v>
+        <v>0.40783450075959177</v>
       </c>
       <c r="E15">
         <v>8</v>
@@ -2913,15 +2913,15 @@
         <v>19.43</v>
       </c>
       <c r="T15">
-        <v>3.9204545454545459</v>
+        <v>15.75284090909091</v>
       </c>
       <c r="Y15">
-        <v>1.7613636363636365</v>
+        <v>12.869318181818183</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>170</v>
@@ -2930,7 +2930,7 @@
         <v>8</v>
       </c>
       <c r="D16">
-        <v>0.40783450075959177</v>
+        <v>0.25489656297474489</v>
       </c>
       <c r="E16">
         <v>8</v>
@@ -2939,7 +2939,7 @@
         <v>250</v>
       </c>
       <c r="H16">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -2951,15 +2951,15 @@
         <v>19.43</v>
       </c>
       <c r="T16">
-        <v>15.75284090909091</v>
+        <v>7.5994318181818183</v>
       </c>
       <c r="Y16">
-        <v>12.869318181818183</v>
+        <v>6.1505681818181817</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B17">
         <v>170</v>
@@ -2968,7 +2968,7 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <v>0.25489656297474489</v>
+        <v>0.10195862518989794</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -2977,7 +2977,7 @@
         <v>250</v>
       </c>
       <c r="H17">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -2985,14 +2985,16 @@
       <c r="J17" s="2">
         <v>0</v>
       </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
       <c r="N17">
         <v>19.43</v>
       </c>
       <c r="T17">
-        <v>7.5994318181818183</v>
+        <v>9.6590909090909083</v>
       </c>
       <c r="Y17">
-        <v>6.1505681818181817</v>
+        <v>7.6846590909090908</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
@@ -3006,7 +3008,7 @@
         <v>8</v>
       </c>
       <c r="D18">
-        <v>0.10195862518989794</v>
+        <v>0.40783450075959177</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -3029,53 +3031,19 @@
         <v>19.43</v>
       </c>
       <c r="T18">
-        <v>9.6590909090909083</v>
+        <v>14.289772727272727</v>
       </c>
       <c r="Y18">
-        <v>7.6846590909090908</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>60</v>
-      </c>
-      <c r="B19">
-        <v>170</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>0.40783450075959177</v>
-      </c>
-      <c r="E19">
-        <v>8</v>
-      </c>
-      <c r="F19">
-        <v>250</v>
-      </c>
-      <c r="H19">
-        <v>60</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-      <c r="N19">
-        <v>19.43</v>
-      </c>
-      <c r="T19">
-        <v>14.289772727272727</v>
-      </c>
-      <c r="Y19">
-        <v>13.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
@@ -3095,18 +3063,13 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4081,7 +4044,6 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:J1"/>
